--- a/diary/cascade-m-170918.xlsx
+++ b/diary/cascade-m-170918.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="270" windowWidth="21525" windowHeight="13320" tabRatio="647" activeTab="4"/>
+    <workbookView xWindow="2370" yWindow="270" windowWidth="18075" windowHeight="9240" tabRatio="647" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Compartments" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="199">
   <si>
     <t>Code Label</t>
   </si>
@@ -381,12 +381,6 @@
     <t>Force of infection for mosquitoes</t>
   </si>
   <si>
-    <t>rate_mb</t>
-  </si>
-  <si>
-    <t>Mosquito Population Growth</t>
-  </si>
-  <si>
     <t>rate_md</t>
   </si>
   <si>
@@ -435,9 +429,6 @@
     <t>Number of mosquito births</t>
   </si>
   <si>
-    <t>rate_mb * m_alive</t>
-  </si>
-  <si>
     <t>Death rate of malaria infected humans</t>
   </si>
   <si>
@@ -552,9 +543,6 @@
     <t>Additional treatments</t>
   </si>
   <si>
-    <t>split</t>
-  </si>
-  <si>
     <t>eff_t</t>
   </si>
   <si>
@@ -570,9 +558,6 @@
     <t>eff_t * util</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>-eff_p * util</t>
   </si>
   <si>
@@ -627,7 +612,10 @@
     <t>-eff</t>
   </si>
   <si>
-    <t>scale_prop_g rate_md</t>
+    <t>scale_prop rate_md</t>
+  </si>
+  <si>
+    <t>rate_md * m_alive</t>
   </si>
 </sst>
 </file>
@@ -2045,13 +2033,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>325120</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>155316</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>156633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2590,10 +2578,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>4</v>
@@ -2775,7 +2763,7 @@
         <v>76</v>
       </c>
       <c r="M1" s="83" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
@@ -3262,7 +3250,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="82" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
@@ -4189,7 +4177,7 @@
       <c r="F2" s="54"/>
       <c r="G2" s="54"/>
       <c r="H2" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I2" s="55"/>
       <c r="J2" s="54"/>
@@ -4214,7 +4202,7 @@
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I3" s="64" t="s">
         <v>34</v>
@@ -4241,7 +4229,7 @@
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I4" s="64" t="s">
         <v>33</v>
@@ -4268,7 +4256,7 @@
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>32</v>
@@ -4296,7 +4284,7 @@
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
       <c r="H6" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I6" s="55" t="s">
         <v>31</v>
@@ -4330,7 +4318,7 @@
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
       <c r="H7" s="81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I7" s="58"/>
       <c r="J7" s="58"/>
@@ -4343,10 +4331,10 @@
     </row>
     <row r="8" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="78">
@@ -4356,7 +4344,7 @@
       <c r="F8" s="70"/>
       <c r="G8" s="70"/>
       <c r="H8" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I8" s="70"/>
       <c r="J8" s="70"/>
@@ -4381,7 +4369,7 @@
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I9" s="64" t="s">
         <v>30</v>
@@ -4408,7 +4396,7 @@
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I10" s="53" t="s">
         <v>29</v>
@@ -4436,7 +4424,7 @@
       <c r="F11" s="58"/>
       <c r="G11" s="58"/>
       <c r="H11" s="81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I11" s="58" t="s">
         <v>28</v>
@@ -4467,7 +4455,7 @@
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
       <c r="H12" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I12" s="52"/>
       <c r="J12" s="55" t="s">
@@ -4496,7 +4484,7 @@
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
       <c r="H13" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I13" s="52"/>
       <c r="J13" s="55" t="s">
@@ -4511,29 +4499,29 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C14" s="64" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="74"/>
       <c r="H14" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="80" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D15" s="74"/>
       <c r="H15" s="60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -4580,10 +4568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O160"/>
+  <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,7 +4638,7 @@
       <c r="F2" s="98"/>
       <c r="G2" s="98"/>
       <c r="H2" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I2" s="98"/>
       <c r="J2" s="98"/>
@@ -4672,10 +4660,10 @@
         <v>-1</v>
       </c>
       <c r="H3" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I3" s="90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J3" s="90" t="s">
         <v>101</v>
@@ -4696,7 +4684,7 @@
       <c r="F4" s="90"/>
       <c r="G4" s="90"/>
       <c r="H4" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I4" s="90"/>
       <c r="J4" s="90"/>
@@ -4716,7 +4704,7 @@
       <c r="F5" s="90"/>
       <c r="G5" s="90"/>
       <c r="H5" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -4738,7 +4726,7 @@
       <c r="F6" s="88"/>
       <c r="G6" s="91"/>
       <c r="H6" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I6" s="88"/>
       <c r="J6" s="88"/>
@@ -4760,7 +4748,7 @@
       <c r="F7" s="88"/>
       <c r="G7" s="91"/>
       <c r="H7" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I7" s="88"/>
       <c r="J7" s="88"/>
@@ -4825,11 +4813,11 @@
     </row>
     <row r="11" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B11" s="88"/>
       <c r="C11" s="90" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D11" s="88"/>
       <c r="E11" s="90"/>
@@ -4843,11 +4831,11 @@
     </row>
     <row r="12" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B12" s="88"/>
       <c r="C12" s="90" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D12" s="88"/>
       <c r="E12" s="90"/>
@@ -4856,10 +4844,10 @@
         <v>-1</v>
       </c>
       <c r="H12" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J12" s="90" t="s">
         <v>55</v>
@@ -4884,11 +4872,11 @@
         <v>-1</v>
       </c>
       <c r="H13" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I13" s="90"/>
       <c r="J13" s="90" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K13" s="63"/>
       <c r="L13" s="63"/>
@@ -4910,79 +4898,81 @@
         <v>-1</v>
       </c>
       <c r="H14" s="101" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I14" s="96" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J14" s="96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K14" s="63"/>
       <c r="L14" s="63"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="88" t="s">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="94"/>
       <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="94" t="s">
+      <c r="B16" s="91"/>
+      <c r="C16" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
       <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="L16" s="63"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="92" t="s">
+        <v>81</v>
+      </c>
       <c r="C17" s="91" t="s">
         <v>125</v>
       </c>
       <c r="D17" s="88"/>
       <c r="E17" s="91"/>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="90" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I17" s="88"/>
       <c r="J17" s="88"/>
@@ -4990,56 +4980,56 @@
       <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="B18" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="88"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="90" t="s">
+      <c r="D18" s="94"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="91"/>
-      <c r="H18" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="94"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="88"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90">
+        <v>-1</v>
+      </c>
+      <c r="H19" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="90"/>
+      <c r="J19" s="98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="91" t="s">
-        <v>49</v>
+        <v>134</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>80</v>
       </c>
       <c r="C20" s="90" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D20" s="88"/>
       <c r="E20" s="90"/>
@@ -5048,31 +5038,31 @@
         <v>-1</v>
       </c>
       <c r="H20" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I20" s="90"/>
-      <c r="J20" s="98" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="J20" s="90" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="B21" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="88"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="90"/>
       <c r="F21" s="90"/>
       <c r="G21" s="90">
         <v>-1</v>
       </c>
       <c r="H21" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I21" s="90"/>
       <c r="J21" s="90" t="s">
@@ -5080,38 +5070,38 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="93" t="s">
-        <v>82</v>
+      <c r="A22" s="90" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="90" t="s">
+        <v>83</v>
       </c>
       <c r="C22" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="91"/>
+        <v>132</v>
+      </c>
+      <c r="D22" s="88"/>
       <c r="E22" s="90"/>
       <c r="F22" s="90"/>
       <c r="G22" s="90">
         <v>-1</v>
       </c>
       <c r="H22" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I22" s="90"/>
       <c r="J22" s="90" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="67" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="90" t="s">
-        <v>83</v>
+        <v>147</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D23" s="88"/>
       <c r="E23" s="90"/>
@@ -5120,38 +5110,25 @@
         <v>-1</v>
       </c>
       <c r="H23" s="100" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I23" s="90"/>
       <c r="J23" s="90" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="67" customFormat="1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90">
-        <v>-1</v>
-      </c>
-      <c r="H24" s="100" t="s">
-        <v>156</v>
-      </c>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
+        <v>145</v>
+      </c>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -5465,7 +5442,7 @@
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
-      <c r="E53" s="12"/>
+      <c r="E53" s="10"/>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
       <c r="H53" s="72"/>
@@ -5531,12 +5508,12 @@
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="12"/>
       <c r="H59" s="72"/>
       <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
@@ -5554,7 +5531,7 @@
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="15"/>
+      <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="72"/>
       <c r="I61" s="12"/>
@@ -5646,7 +5623,7 @@
       <c r="G69" s="12"/>
       <c r="H69" s="72"/>
       <c r="I69" s="12"/>
-      <c r="J69" s="10"/>
+      <c r="J69" s="12"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="12"/>
@@ -5742,7 +5719,7 @@
       <c r="C78" s="12"/>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="G78" s="10"/>
       <c r="H78" s="72"/>
       <c r="I78" s="12"/>
       <c r="J78" s="12"/>
@@ -5753,7 +5730,7 @@
       <c r="C79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
-      <c r="G79" s="10"/>
+      <c r="G79" s="12"/>
       <c r="H79" s="72"/>
       <c r="I79" s="12"/>
       <c r="J79" s="12"/>
@@ -5764,155 +5741,155 @@
       <c r="C80" s="12"/>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
+      <c r="G80" s="10"/>
       <c r="H80" s="72"/>
       <c r="I80" s="12"/>
       <c r="J80" s="12"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="12"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="10"/>
+      <c r="G81" s="12"/>
       <c r="H81" s="72"/>
       <c r="I81" s="12"/>
       <c r="J81" s="12"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="12"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+      <c r="G82" s="10"/>
       <c r="H82" s="72"/>
       <c r="I82" s="12"/>
       <c r="J82" s="12"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="12"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
-      <c r="G83" s="10"/>
+      <c r="G83" s="12"/>
       <c r="H83" s="72"/>
       <c r="I83" s="12"/>
       <c r="J83" s="12"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
+      <c r="G84" s="10"/>
       <c r="H84" s="72"/>
       <c r="I84" s="12"/>
       <c r="J84" s="12"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="10"/>
+      <c r="G85" s="12"/>
       <c r="H85" s="72"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
+      <c r="G86" s="10"/>
       <c r="H86" s="72"/>
       <c r="I86" s="12"/>
       <c r="J86" s="12"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="12"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
-      <c r="G87" s="10"/>
+      <c r="G87" s="12"/>
       <c r="H87" s="72"/>
       <c r="I87" s="12"/>
       <c r="J87" s="12"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="12"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="G88" s="10"/>
       <c r="H88" s="72"/>
       <c r="I88" s="12"/>
       <c r="J88" s="12"/>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="12"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
-      <c r="G89" s="10"/>
+      <c r="G89" s="12"/>
       <c r="H89" s="72"/>
       <c r="I89" s="12"/>
       <c r="J89" s="12"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="12"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="G90" s="10"/>
       <c r="H90" s="72"/>
       <c r="I90" s="12"/>
       <c r="J90" s="12"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
-      <c r="G91" s="10"/>
+      <c r="G91" s="12"/>
       <c r="H91" s="72"/>
       <c r="I91" s="12"/>
       <c r="J91" s="12"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="12"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="G92" s="10"/>
       <c r="H92" s="72"/>
       <c r="I92" s="12"/>
       <c r="J92" s="12"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="12"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
-      <c r="G93" s="10"/>
+      <c r="G93" s="12"/>
       <c r="H93" s="72"/>
       <c r="I93" s="12"/>
       <c r="J93" s="12"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="12"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -5923,7 +5900,7 @@
       <c r="I94" s="12"/>
       <c r="J94" s="12"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="12"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -5934,7 +5911,7 @@
       <c r="I95" s="12"/>
       <c r="J95" s="12"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="12"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -5944,31 +5921,31 @@
       <c r="H96" s="72"/>
       <c r="I96" s="12"/>
       <c r="J96" s="12"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="16"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="12"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
+      <c r="G97" s="14"/>
       <c r="H97" s="72"/>
       <c r="I97" s="12"/>
       <c r="J97" s="12"/>
-      <c r="O97" s="16"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="12"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
-      <c r="G98" s="14"/>
+      <c r="G98" s="12"/>
       <c r="H98" s="72"/>
       <c r="I98" s="12"/>
       <c r="J98" s="12"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="12"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -5979,7 +5956,7 @@
       <c r="I99" s="12"/>
       <c r="J99" s="12"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="12"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -5990,7 +5967,7 @@
       <c r="I100" s="12"/>
       <c r="J100" s="12"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="12"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -6001,7 +5978,7 @@
       <c r="I101" s="12"/>
       <c r="J101" s="12"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="12"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -6012,7 +5989,7 @@
       <c r="I102" s="12"/>
       <c r="J102" s="12"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="12"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -6023,7 +6000,7 @@
       <c r="I103" s="12"/>
       <c r="J103" s="12"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="12"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -6034,7 +6011,7 @@
       <c r="I104" s="12"/>
       <c r="J104" s="12"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="12"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -6045,7 +6022,7 @@
       <c r="I105" s="12"/>
       <c r="J105" s="12"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="12"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -6056,7 +6033,7 @@
       <c r="I106" s="12"/>
       <c r="J106" s="12"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="12"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -6067,7 +6044,7 @@
       <c r="I107" s="12"/>
       <c r="J107" s="12"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -6078,7 +6055,7 @@
       <c r="I108" s="12"/>
       <c r="J108" s="12"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="12"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -6089,29 +6066,29 @@
       <c r="I109" s="12"/>
       <c r="J109" s="12"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+      <c r="G110" s="10"/>
       <c r="H110" s="72"/>
       <c r="I110" s="12"/>
       <c r="J110" s="12"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
-      <c r="G111" s="10"/>
+      <c r="G111" s="12"/>
       <c r="H111" s="72"/>
       <c r="I111" s="12"/>
       <c r="J111" s="12"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -6161,7 +6138,7 @@
       <c r="C116" s="12"/>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
+      <c r="G116" s="10"/>
       <c r="H116" s="72"/>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -6172,7 +6149,7 @@
       <c r="C117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
-      <c r="G117" s="10"/>
+      <c r="G117" s="12"/>
       <c r="H117" s="72"/>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
@@ -6227,7 +6204,7 @@
       <c r="C122" s="12"/>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
+      <c r="G122" s="10"/>
       <c r="H122" s="72"/>
       <c r="I122" s="12"/>
       <c r="J122" s="12"/>
@@ -6238,7 +6215,7 @@
       <c r="C123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
-      <c r="G123" s="10"/>
+      <c r="G123" s="12"/>
       <c r="H123" s="72"/>
       <c r="I123" s="12"/>
       <c r="J123" s="12"/>
@@ -6293,7 +6270,7 @@
       <c r="C128" s="12"/>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
-      <c r="G128" s="12"/>
+      <c r="G128" s="10"/>
       <c r="H128" s="72"/>
       <c r="I128" s="12"/>
       <c r="J128" s="12"/>
@@ -6304,7 +6281,7 @@
       <c r="C129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
-      <c r="G129" s="10"/>
+      <c r="G129" s="12"/>
       <c r="H129" s="72"/>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
@@ -6441,16 +6418,9 @@
       <c r="I141" s="12"/>
       <c r="J141" s="12"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="E142" s="12"/>
-      <c r="F142" s="12"/>
-      <c r="G142" s="12"/>
-      <c r="H142" s="72"/>
-      <c r="I142" s="12"/>
-      <c r="J142" s="12"/>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="12"/>
+      <c r="C144" s="12"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="12"/>
@@ -6472,9 +6442,9 @@
       <c r="A149" s="12"/>
       <c r="C149" s="12"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="C150" s="12"/>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="12"/>
+      <c r="C151" s="12"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="12"/>
@@ -6507,10 +6477,6 @@
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="12"/>
       <c r="C159" s="12"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="C160" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6522,8 +6488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6568,19 +6534,19 @@
     </row>
     <row r="2" spans="1:9" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="105" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" s="102" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="105" t="s">
-        <v>163</v>
-      </c>
-      <c r="E2" s="105" t="s">
-        <v>164</v>
       </c>
       <c r="F2" s="105"/>
       <c r="G2" s="105"/>
@@ -6592,10 +6558,10 @@
       <c r="B3" s="102"/>
       <c r="C3" s="102"/>
       <c r="D3" s="105" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E3" s="105" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F3" s="102"/>
       <c r="G3" s="102"/>
@@ -6607,10 +6573,10 @@
       <c r="B4" s="105"/>
       <c r="C4" s="102"/>
       <c r="D4" s="105" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E4" s="105" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F4" s="102"/>
       <c r="G4" s="102"/>
@@ -6627,7 +6593,7 @@
         <v>97</v>
       </c>
       <c r="G5" s="106" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="105"/>
       <c r="I5" s="102"/>
@@ -6639,27 +6605,27 @@
       <c r="D6" s="102"/>
       <c r="E6" s="102"/>
       <c r="F6" s="102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G6" s="107" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H6" s="102"/>
       <c r="I6" s="102"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C7" s="102"/>
       <c r="D7" s="102" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F7" s="102"/>
       <c r="G7" s="102"/>
@@ -6673,29 +6639,29 @@
       <c r="D8" s="102"/>
       <c r="E8" s="102"/>
       <c r="F8" s="102" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G8" s="102" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H8" s="102"/>
       <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="102" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="102" t="s">
         <v>175</v>
-      </c>
-      <c r="B9" s="102" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="102" t="s">
-        <v>178</v>
-      </c>
-      <c r="E9" s="102" t="s">
-        <v>179</v>
       </c>
       <c r="F9" s="102"/>
       <c r="G9" s="102"/>
@@ -6707,10 +6673,10 @@
       <c r="B10" s="102"/>
       <c r="C10" s="102"/>
       <c r="D10" s="102" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F10" s="102"/>
       <c r="G10" s="102"/>
@@ -6722,10 +6688,10 @@
       <c r="B11" s="102"/>
       <c r="C11" s="102"/>
       <c r="D11" s="102" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F11" s="102"/>
       <c r="G11" s="102"/>
@@ -6739,14 +6705,12 @@
       <c r="D12" s="102"/>
       <c r="E12" s="102"/>
       <c r="F12" s="102" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G12" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="102" t="s">
-        <v>183</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="H12" s="102"/>
       <c r="I12" s="102"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -6756,14 +6720,12 @@
       <c r="D13" s="102"/>
       <c r="E13" s="102"/>
       <c r="F13" s="102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="102" t="s">
-        <v>183</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="H13" s="102"/>
       <c r="I13" s="102"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -6776,26 +6738,26 @@
         <v>97</v>
       </c>
       <c r="G14" s="106" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="H14" s="102"/>
       <c r="I14" s="102"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="102" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B15" s="102" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C15" s="102" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D15" s="102" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E15" s="102" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F15" s="102"/>
       <c r="G15" s="102"/>
@@ -6807,10 +6769,10 @@
       <c r="B16" s="102"/>
       <c r="C16" s="102"/>
       <c r="D16" s="102" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E16" s="102" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F16" s="102"/>
       <c r="G16" s="102"/>
@@ -6822,10 +6784,10 @@
       <c r="B17" s="102"/>
       <c r="C17" s="102"/>
       <c r="D17" s="102" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E17" s="102" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F17" s="102"/>
       <c r="G17" s="102"/>
@@ -6835,10 +6797,10 @@
       <c r="B18" s="102"/>
       <c r="C18" s="102"/>
       <c r="D18" s="102" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E18" s="102" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F18" s="102"/>
       <c r="G18" s="102"/>
@@ -6861,7 +6823,7 @@
       <c r="D20" s="102"/>
       <c r="E20" s="102"/>
       <c r="F20" s="102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G20" s="102"/>
     </row>
@@ -6872,7 +6834,7 @@
       <c r="D21" s="102"/>
       <c r="E21" s="102"/>
       <c r="F21" s="102" t="s">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="G21" s="102"/>
     </row>
@@ -6883,25 +6845,25 @@
       <c r="D22" s="102"/>
       <c r="E22" s="102"/>
       <c r="F22" s="102" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G22" s="102"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="102" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B23" s="102" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F23" s="102"/>
       <c r="G23" s="102"/>
@@ -6916,7 +6878,7 @@
         <v>97</v>
       </c>
       <c r="G24" s="107" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
